--- a/Running projects/NASTP/021- Invoice for Operation and maintenance charges Nov 24.xlsx
+++ b/Running projects/NASTP/021- Invoice for Operation and maintenance charges Nov 24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NASTP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AC2149-E88B-4CB2-AF8F-133F4E22A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E062A2-658F-43C2-B6DE-A7F5AE817E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4875" yWindow="4875" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="4875" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -148,14 +148,14 @@
     <t>SST 20%</t>
   </si>
   <si>
-    <t>02 Dec 2024</t>
-  </si>
-  <si>
     <t>021</t>
   </si>
   <si>
     <t>Operarion and Maintenance charges for HVAC, Fire Fighting &amp; Plumbing pumps.
 For the month of November 24</t>
+  </si>
+  <si>
+    <t>14 Jan 2025</t>
   </si>
 </sst>
 </file>
@@ -836,9 +836,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -876,9 +876,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,9 +911,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,9 +963,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1124,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1165,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="24" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1254,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="46">
